--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AFE5F1C-4D70-4C45-B8F8-5DB35EEECF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9A396-D3AA-4855-86A5-B77257BAE2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA0D16CD-5132-40E8-AD8D-3DC4A5CEA9D9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>مرکز هزینه</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>تاریخ ترک کار</t>
+  </si>
+  <si>
+    <t>وضعیت تاهل</t>
+  </si>
+  <si>
+    <t>تعداد فرزند</t>
+  </si>
+  <si>
+    <t>تاریخ شروع قرارداد</t>
+  </si>
+  <si>
+    <t>تاریخ پایان قرارداد</t>
   </si>
 </sst>
 </file>
@@ -192,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -215,16 +227,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9EB6CE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9EB6CE"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9EB6CE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,15 +579,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410BB03E-F2A0-4672-AEBC-38D2AA7FE8D5}">
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AO1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection sqref="A1:AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,6 +710,18 @@
       </c>
       <c r="AO1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
